--- a/Database/Campean/Gravitatea_restrictiilor.xlsx
+++ b/Database/Campean/Gravitatea_restrictiilor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Desktop\excel teste licenta\New folder\Excel teste licenta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Desktop\New folder\Licenta_covid19_UTCN\Database\Campean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB0A46-0481-4B2D-A47A-3C688C3F1A7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD517FD5-3F35-4992-8DD9-27A87A3F1F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9241" yWindow="4107" windowWidth="12998" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6649" yWindow="2617" windowWidth="12998" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C441"/>
+  <dimension ref="A1:C493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="F441" sqref="F441"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="G489" sqref="G489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -5264,6 +5264,578 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B442">
+        <v>441</v>
+      </c>
+      <c r="C442">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B443">
+        <v>442</v>
+      </c>
+      <c r="C443">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>44318</v>
+      </c>
+      <c r="B444">
+        <v>443</v>
+      </c>
+      <c r="C444">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B445">
+        <v>444</v>
+      </c>
+      <c r="C445">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B446">
+        <v>445</v>
+      </c>
+      <c r="C446">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B447">
+        <v>446</v>
+      </c>
+      <c r="C447">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B448">
+        <v>447</v>
+      </c>
+      <c r="C448">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B449">
+        <v>448</v>
+      </c>
+      <c r="C449">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B450">
+        <v>449</v>
+      </c>
+      <c r="C450">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B451">
+        <v>450</v>
+      </c>
+      <c r="C451">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B452">
+        <v>451</v>
+      </c>
+      <c r="C452">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>44327</v>
+      </c>
+      <c r="B453">
+        <v>452</v>
+      </c>
+      <c r="C453">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B454">
+        <v>453</v>
+      </c>
+      <c r="C454">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B455">
+        <v>454</v>
+      </c>
+      <c r="C455">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B456">
+        <v>455</v>
+      </c>
+      <c r="C456">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B457">
+        <v>456</v>
+      </c>
+      <c r="C457">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B458">
+        <v>457</v>
+      </c>
+      <c r="C458">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B459">
+        <v>458</v>
+      </c>
+      <c r="C459">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B460">
+        <v>459</v>
+      </c>
+      <c r="C460">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B461">
+        <v>460</v>
+      </c>
+      <c r="C461">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B462">
+        <v>461</v>
+      </c>
+      <c r="C462">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B463">
+        <v>462</v>
+      </c>
+      <c r="C463">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B464">
+        <v>463</v>
+      </c>
+      <c r="C464">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B465">
+        <v>464</v>
+      </c>
+      <c r="C465">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B466">
+        <v>465</v>
+      </c>
+      <c r="C466">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B467">
+        <v>466</v>
+      </c>
+      <c r="C467">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B468">
+        <v>467</v>
+      </c>
+      <c r="C468">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B469">
+        <v>468</v>
+      </c>
+      <c r="C469">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B470">
+        <v>469</v>
+      </c>
+      <c r="C470">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>44345</v>
+      </c>
+      <c r="B471">
+        <v>470</v>
+      </c>
+      <c r="C471">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B472">
+        <v>471</v>
+      </c>
+      <c r="C472">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B473">
+        <v>472</v>
+      </c>
+      <c r="C473">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B474">
+        <v>473</v>
+      </c>
+      <c r="C474">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B475">
+        <v>474</v>
+      </c>
+      <c r="C475">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B476">
+        <v>475</v>
+      </c>
+      <c r="C476">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B477">
+        <v>476</v>
+      </c>
+      <c r="C477">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B478">
+        <v>477</v>
+      </c>
+      <c r="C478">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B479">
+        <v>478</v>
+      </c>
+      <c r="C479">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B480">
+        <v>479</v>
+      </c>
+      <c r="C480">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B481">
+        <v>480</v>
+      </c>
+      <c r="C481">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B482">
+        <v>481</v>
+      </c>
+      <c r="C482">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B483">
+        <v>482</v>
+      </c>
+      <c r="C483">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B484">
+        <v>483</v>
+      </c>
+      <c r="C484">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B485">
+        <v>484</v>
+      </c>
+      <c r="C485">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B486">
+        <v>485</v>
+      </c>
+      <c r="C486">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B487">
+        <v>486</v>
+      </c>
+      <c r="C487">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B488">
+        <v>487</v>
+      </c>
+      <c r="C488">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B489">
+        <v>488</v>
+      </c>
+      <c r="C489">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B490">
+        <v>489</v>
+      </c>
+      <c r="C490">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B491">
+        <v>490</v>
+      </c>
+      <c r="C491">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B492">
+        <v>491</v>
+      </c>
+      <c r="C492">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>44367</v>
+      </c>
+      <c r="B493">
+        <v>492</v>
+      </c>
+      <c r="C493">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
